--- a/killers_excel.xlsx
+++ b/killers_excel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b954984cd282067a/Desktop/Class_folder/Class Project/Horrorscopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1493A3A1-D195-4CCE-BE0F-B93F78F6773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1493A3A1-D195-4CCE-BE0F-B93F78F6773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71AFE9D-F432-4CF2-82F9-BAE512B3778B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2569468D-C13A-4330-8DF5-F3EF403746FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$500</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="542">
   <si>
     <t>proven_victims</t>
   </si>
@@ -248,9 +251,6 @@
   </si>
   <si>
     <t>Briley</t>
-  </si>
-  <si>
-    <t>Brothers</t>
   </si>
   <si>
     <t>Broadnax, Donald</t>
@@ -2016,23 +2016,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41171E95-B862-4321-91FC-FCB8337BAFD5}">
-  <dimension ref="A1:F500"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" t="s">
         <v>540</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>541</v>
-      </c>
-      <c r="C1" t="s">
-        <v>542</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2959,32 +2959,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
         <v>19809</v>
       </c>
-      <c r="E56">
+      <c r="D56">
         <v>21</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1">
         <v>22282</v>
@@ -2996,12 +2993,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1">
         <v>25225</v>
@@ -3013,12 +3010,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1">
         <v>21399</v>
@@ -3030,12 +3027,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="1">
         <v>20399</v>
@@ -3047,12 +3044,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1">
         <v>29039</v>
@@ -3064,12 +3061,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="1">
         <v>19298</v>
@@ -3081,12 +3078,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1">
         <v>14276</v>
@@ -3098,12 +3095,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1">
         <v>20815</v>
@@ -3120,7 +3117,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="1">
         <v>14864</v>
@@ -3137,7 +3134,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1">
         <v>15800</v>
@@ -3154,7 +3151,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="1">
         <v>22233</v>
@@ -3171,7 +3168,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1">
         <v>17804</v>
@@ -3188,7 +3185,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1">
         <v>15579</v>
@@ -3205,7 +3202,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1">
         <v>17130</v>
@@ -3222,7 +3219,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>12697</v>
@@ -3239,7 +3236,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1">
         <v>11687</v>
@@ -3256,7 +3253,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1">
         <v>10000</v>
@@ -3273,7 +3270,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="1">
         <v>18235</v>
@@ -3290,7 +3287,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1">
         <v>11084</v>
@@ -3307,7 +3304,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="1">
         <v>16062</v>
@@ -3324,10 +3321,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
         <v>92</v>
-      </c>
-      <c r="C77" t="s">
-        <v>93</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3341,7 +3338,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1">
         <v>18595</v>
@@ -3358,7 +3355,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="1">
         <v>18595</v>
@@ -3375,7 +3372,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1">
         <v>18289</v>
@@ -3392,7 +3389,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1">
         <v>2106</v>
@@ -3409,7 +3406,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1">
         <v>17086</v>
@@ -3426,7 +3423,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="1">
         <v>18406</v>
@@ -3443,7 +3440,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1">
         <v>24955</v>
@@ -3460,7 +3457,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1">
         <v>23415</v>
@@ -3477,7 +3474,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="1">
         <v>20354</v>
@@ -3494,7 +3491,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="1">
         <v>24192</v>
@@ -3511,7 +3508,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="1">
         <v>25368</v>
@@ -3528,7 +3525,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="1">
         <v>21182</v>
@@ -3545,7 +3542,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1">
         <v>20296</v>
@@ -3562,7 +3559,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1">
         <v>17602</v>
@@ -3579,7 +3576,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" s="1">
         <v>19206</v>
@@ -3596,7 +3593,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="1">
         <v>4231</v>
@@ -3613,7 +3610,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1">
         <v>20451</v>
@@ -3630,10 +3627,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
         <v>111</v>
-      </c>
-      <c r="C95" t="s">
-        <v>112</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -3647,10 +3644,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
         <v>113</v>
-      </c>
-      <c r="C96" t="s">
-        <v>114</v>
       </c>
       <c r="D96">
         <v>9</v>
@@ -3664,7 +3661,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="1">
         <v>20526</v>
@@ -3681,7 +3678,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="1">
         <v>22665</v>
@@ -3698,7 +3695,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="1">
         <v>20399</v>
@@ -3715,7 +3712,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="1">
         <v>9410</v>
@@ -3732,7 +3729,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="1">
         <v>21765</v>
@@ -3749,7 +3746,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="1">
         <v>23907</v>
@@ -3766,7 +3763,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="1">
         <v>17966</v>
@@ -3783,7 +3780,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="1">
         <v>17966</v>
@@ -3800,7 +3797,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" s="1">
         <v>28137</v>
@@ -3817,7 +3814,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="1">
         <v>14603</v>
@@ -3834,7 +3831,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" s="1">
         <v>12457</v>
@@ -3851,7 +3848,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" s="1">
         <v>21441</v>
@@ -3868,7 +3865,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="1">
         <v>16286</v>
@@ -3885,7 +3882,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="1">
         <v>16973</v>
@@ -3902,7 +3899,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" s="1">
         <v>17131</v>
@@ -3919,7 +3916,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" s="1">
         <v>22708</v>
@@ -3936,10 +3933,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
         <v>131</v>
-      </c>
-      <c r="C113" t="s">
-        <v>132</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -3953,7 +3950,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" s="1">
         <v>19598</v>
@@ -3970,7 +3967,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" s="1">
         <v>23318</v>
@@ -3987,7 +3984,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="1">
         <v>20826</v>
@@ -4004,7 +4001,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" s="1">
         <v>18515</v>
@@ -4021,7 +4018,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" s="1">
         <v>21968</v>
@@ -4038,7 +4035,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" s="1">
         <v>25446</v>
@@ -4055,7 +4052,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" s="1">
         <v>22057</v>
@@ -4072,7 +4069,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" s="1">
         <v>17039</v>
@@ -4089,7 +4086,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" s="1">
         <v>22814</v>
@@ -4106,7 +4103,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="1">
         <v>17779</v>
@@ -4123,7 +4120,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="1">
         <v>17336</v>
@@ -4140,7 +4137,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" s="1">
         <v>19388</v>
@@ -4157,7 +4154,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" s="1">
         <v>21205</v>
@@ -4174,7 +4171,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" s="1">
         <v>16749</v>
@@ -4191,7 +4188,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="1">
         <v>24455</v>
@@ -4208,7 +4205,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" s="1">
         <v>23684</v>
@@ -4225,7 +4222,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="1">
         <v>26699</v>
@@ -4242,7 +4239,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="1">
         <v>18453</v>
@@ -4259,7 +4256,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="1">
         <v>22465</v>
@@ -4276,7 +4273,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="1">
         <v>23385</v>
@@ -4293,7 +4290,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="1">
         <v>27715</v>
@@ -4310,7 +4307,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="1">
         <v>2135</v>
@@ -4327,7 +4324,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="1">
         <v>27890</v>
@@ -4344,7 +4341,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="1">
         <v>20721</v>
@@ -4361,7 +4358,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" s="1">
         <v>23067</v>
@@ -4378,7 +4375,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" s="1">
         <v>10276</v>
@@ -4395,7 +4392,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" s="1">
         <v>25791</v>
@@ -4412,7 +4409,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="1">
         <v>21250</v>
@@ -4429,7 +4426,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" s="1">
         <v>26347</v>
@@ -4446,7 +4443,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" s="1">
         <v>22091</v>
@@ -4463,7 +4460,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C144" s="1">
         <v>9899</v>
@@ -4480,7 +4477,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C145" s="1">
         <v>23002</v>
@@ -4497,7 +4494,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C146" s="1">
         <v>18804</v>
@@ -4514,7 +4511,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C147" s="1">
         <v>26059</v>
@@ -4531,7 +4528,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" s="1">
         <v>20004</v>
@@ -4548,7 +4545,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C149" s="1">
         <v>23221</v>
@@ -4565,7 +4562,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C150" s="1">
         <v>20904</v>
@@ -4582,7 +4579,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C151" s="1">
         <v>19349</v>
@@ -4599,7 +4596,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C152" s="1">
         <v>23082</v>
@@ -4616,7 +4613,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153" s="1">
         <v>25470</v>
@@ -4633,7 +4630,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" s="1">
         <v>23196</v>
@@ -4650,7 +4647,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C155" s="1">
         <v>26025</v>
@@ -4667,7 +4664,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="1">
         <v>22971</v>
@@ -4684,7 +4681,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C157" s="1">
         <v>17590</v>
@@ -4701,7 +4698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="1">
         <v>23858</v>
@@ -4718,7 +4715,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C159" s="1">
         <v>5465</v>
@@ -4735,7 +4732,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C160" s="1">
         <v>21817</v>
@@ -4752,10 +4749,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" t="s">
         <v>180</v>
-      </c>
-      <c r="C161" t="s">
-        <v>181</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -4769,7 +4766,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C162" s="1">
         <v>27103</v>
@@ -4786,7 +4783,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C163" s="1">
         <v>23053</v>
@@ -4803,7 +4800,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C164" s="1">
         <v>22618</v>
@@ -4820,7 +4817,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C165" s="1">
         <v>23583</v>
@@ -4837,7 +4834,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C166" s="1">
         <v>20344</v>
@@ -4854,7 +4851,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C167" s="1">
         <v>26140</v>
@@ -4871,7 +4868,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C168" s="1">
         <v>18366</v>
@@ -4888,7 +4885,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C169" s="1">
         <v>19236</v>
@@ -4905,7 +4902,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C170" s="1">
         <v>15417</v>
@@ -4922,7 +4919,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C171" s="1">
         <v>17000</v>
@@ -4939,7 +4936,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="1">
         <v>27805</v>
@@ -4956,7 +4953,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C173" s="1">
         <v>21788</v>
@@ -4973,7 +4970,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C174" s="1">
         <v>18530</v>
@@ -4990,7 +4987,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C175" s="1">
         <v>21429</v>
@@ -5007,7 +5004,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C176" s="1">
         <v>24451</v>
@@ -5024,7 +5021,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C177" s="1">
         <v>19693</v>
@@ -5041,7 +5038,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C178" s="1">
         <v>2431</v>
@@ -5058,7 +5055,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="1">
         <v>23694</v>
@@ -5075,7 +5072,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C180" s="1">
         <v>21103</v>
@@ -5092,7 +5089,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C181" s="1">
         <v>24789</v>
@@ -5109,7 +5106,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C182" s="1">
         <v>19458</v>
@@ -5126,7 +5123,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C183" s="1">
         <v>22821</v>
@@ -5143,7 +5140,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C184" s="1">
         <v>18407</v>
@@ -5160,7 +5157,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C185" s="1">
         <v>15900</v>
@@ -5177,7 +5174,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C186" s="1">
         <v>25668</v>
@@ -5194,7 +5191,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C187" s="1">
         <v>24412</v>
@@ -5211,7 +5208,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C188" s="1">
         <v>8741</v>
@@ -5228,7 +5225,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C189" s="1">
         <v>25237</v>
@@ -5245,7 +5242,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C190" s="1">
         <v>19592</v>
@@ -5262,7 +5259,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C191" s="1">
         <v>23240</v>
@@ -5279,7 +5276,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C192" s="1">
         <v>15016</v>
@@ -5296,7 +5293,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C193" s="1">
         <v>23626</v>
@@ -5313,7 +5310,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C194" s="1">
         <v>23229</v>
@@ -5330,7 +5327,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C195" s="1">
         <v>21802</v>
@@ -5347,7 +5344,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C196" s="1">
         <v>18808</v>
@@ -5364,7 +5361,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C197" s="1">
         <v>18479</v>
@@ -5381,7 +5378,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C198" s="1">
         <v>27980</v>
@@ -5398,7 +5395,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C199" s="1">
         <v>21160</v>
@@ -5415,7 +5412,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C200" s="1">
         <v>19943</v>
@@ -5432,7 +5429,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C201" s="1">
         <v>23968</v>
@@ -5449,7 +5446,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C202" s="1">
         <v>22277</v>
@@ -5466,7 +5463,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C203" s="1">
         <v>17953</v>
@@ -5483,7 +5480,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C204" s="1">
         <v>16415</v>
@@ -5500,7 +5497,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C205" s="1">
         <v>16090</v>
@@ -5517,7 +5514,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C206" s="1">
         <v>18769</v>
@@ -5534,7 +5531,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C207" s="1">
         <v>23250</v>
@@ -5551,7 +5548,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C208" s="1">
         <v>19833</v>
@@ -5568,7 +5565,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C209" s="1">
         <v>17711</v>
@@ -5585,7 +5582,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C210" s="1">
         <v>18942</v>
@@ -5602,7 +5599,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C211" s="1">
         <v>27312</v>
@@ -5619,7 +5616,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C212" s="1">
         <v>14291</v>
@@ -5636,7 +5633,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C213" s="1">
         <v>17958</v>
@@ -5653,7 +5650,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C214" s="1">
         <v>23077</v>
@@ -5670,7 +5667,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C215" s="1">
         <v>26357</v>
@@ -5687,7 +5684,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C216" s="1">
         <v>14127</v>
@@ -5704,7 +5701,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C217" s="1">
         <v>19099</v>
@@ -5721,10 +5718,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
+        <v>237</v>
+      </c>
+      <c r="C218" t="s">
         <v>238</v>
-      </c>
-      <c r="C218" t="s">
-        <v>239</v>
       </c>
       <c r="D218">
         <v>13</v>
@@ -5738,7 +5735,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C219" s="1">
         <v>10790</v>
@@ -5755,7 +5752,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C220" s="1">
         <v>26699</v>
@@ -5772,7 +5769,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C221" s="1">
         <v>30022</v>
@@ -5789,10 +5786,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" t="s">
         <v>243</v>
-      </c>
-      <c r="C222" t="s">
-        <v>244</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -5806,7 +5803,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C223" s="1">
         <v>10547</v>
@@ -5823,7 +5820,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C224" s="1">
         <v>20584</v>
@@ -5840,7 +5837,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C225" s="1">
         <v>18644</v>
@@ -5857,7 +5854,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C226" s="1">
         <v>26245</v>
@@ -5874,7 +5871,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C227" s="1">
         <v>24084</v>
@@ -5891,10 +5888,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
+        <v>249</v>
+      </c>
+      <c r="C228" t="s">
         <v>250</v>
-      </c>
-      <c r="C228" t="s">
-        <v>251</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -5908,7 +5905,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C229" s="1">
         <v>3112</v>
@@ -5925,7 +5922,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C230" s="1">
         <v>22370</v>
@@ -5942,7 +5939,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C231" s="1">
         <v>12822</v>
@@ -5959,7 +5956,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C232" s="1">
         <v>17128</v>
@@ -5976,7 +5973,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C233" s="1">
         <v>18323</v>
@@ -5993,7 +5990,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C234" s="1">
         <v>21205</v>
@@ -6010,10 +6007,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
+        <v>257</v>
+      </c>
+      <c r="C235" t="s">
         <v>258</v>
-      </c>
-      <c r="C235" t="s">
-        <v>259</v>
       </c>
       <c r="D235">
         <v>9</v>
@@ -6027,7 +6024,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C236" s="1">
         <v>19641</v>
@@ -6044,7 +6041,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C237" s="1">
         <v>24919</v>
@@ -6061,7 +6058,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C238" s="1">
         <v>19513</v>
@@ -6078,7 +6075,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C239" s="1">
         <v>25610</v>
@@ -6095,7 +6092,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C240" s="1">
         <v>16935</v>
@@ -6112,7 +6109,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C241" s="1">
         <v>25230</v>
@@ -6129,7 +6126,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C242" s="1">
         <v>17561</v>
@@ -6146,7 +6143,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C243" s="1">
         <v>27451</v>
@@ -6163,7 +6160,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C244" s="1">
         <v>20907</v>
@@ -6180,7 +6177,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C245" s="1">
         <v>22500</v>
@@ -6197,7 +6194,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C246" s="1">
         <v>8859</v>
@@ -6214,7 +6211,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C247" s="1">
         <v>18022</v>
@@ -6231,7 +6228,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C248" s="1">
         <v>16805</v>
@@ -6248,7 +6245,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C249" s="1">
         <v>17597</v>
@@ -6265,7 +6262,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C250" s="1">
         <v>13558</v>
@@ -6282,7 +6279,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C251" s="1">
         <v>21902</v>
@@ -6299,7 +6296,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C252" s="1">
         <v>24712</v>
@@ -6316,7 +6313,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C253" s="1">
         <v>24151</v>
@@ -6333,7 +6330,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" s="1">
         <v>26210</v>
@@ -6350,7 +6347,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C255" s="1">
         <v>20185</v>
@@ -6367,7 +6364,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C256" s="1">
         <v>23155</v>
@@ -6384,7 +6381,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C257" s="1">
         <v>18398</v>
@@ -6401,7 +6398,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C258" s="1">
         <v>27114</v>
@@ -6418,7 +6415,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C259" s="1">
         <v>25209</v>
@@ -6435,7 +6432,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C260" s="1">
         <v>20658</v>
@@ -6452,7 +6449,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C261" s="1">
         <v>25472</v>
@@ -6469,7 +6466,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C262" s="1">
         <v>18457</v>
@@ -6486,7 +6483,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C263" s="1">
         <v>23599</v>
@@ -6503,7 +6500,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C264" s="1">
         <v>23194</v>
@@ -6520,7 +6517,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C265" s="1">
         <v>22792</v>
@@ -6537,7 +6534,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C266" s="1">
         <v>21035</v>
@@ -6554,7 +6551,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C267" s="1">
         <v>24402</v>
@@ -6571,7 +6568,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C268" s="1">
         <v>13129</v>
@@ -6588,7 +6585,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C269" s="1">
         <v>23641</v>
@@ -6605,7 +6602,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C270" s="1">
         <v>14512</v>
@@ -6622,7 +6619,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C271" s="1">
         <v>26925</v>
@@ -6639,7 +6636,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C272" s="1">
         <v>23079</v>
@@ -6656,7 +6653,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C273" s="1">
         <v>18701</v>
@@ -6673,7 +6670,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C274" s="1">
         <v>17885</v>
@@ -6690,7 +6687,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C275" s="1">
         <v>14386</v>
@@ -6707,7 +6704,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C276" s="1">
         <v>24371</v>
@@ -6724,7 +6721,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C277" s="1">
         <v>12624</v>
@@ -6741,7 +6738,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C278" s="1">
         <v>14579</v>
@@ -6758,7 +6755,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C279" s="1">
         <v>25094</v>
@@ -6775,7 +6772,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C280" s="1">
         <v>18663</v>
@@ -6792,7 +6789,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C281" s="1">
         <v>15012</v>
@@ -6809,7 +6806,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C282" s="1">
         <v>16875</v>
@@ -6826,7 +6823,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C283" s="1">
         <v>19829</v>
@@ -6843,7 +6840,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C284" s="1">
         <v>16917</v>
@@ -6860,7 +6857,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C285" s="1">
         <v>17696</v>
@@ -6877,7 +6874,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C286" s="1">
         <v>25999</v>
@@ -6894,7 +6891,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C287" s="1">
         <v>19693</v>
@@ -6911,7 +6908,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C288" s="1">
         <v>19693</v>
@@ -6928,7 +6925,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C289" s="1">
         <v>21689</v>
@@ -6945,7 +6942,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C290" s="1">
         <v>16518</v>
@@ -6962,7 +6959,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C291" s="1">
         <v>16515</v>
@@ -6979,7 +6976,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C292" s="1">
         <v>16404</v>
@@ -6996,7 +6993,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C293" s="1">
         <v>1321</v>
@@ -7013,7 +7010,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C294" s="1">
         <v>21370</v>
@@ -7030,7 +7027,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C295" s="1">
         <v>20882</v>
@@ -7047,7 +7044,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C296" s="1">
         <v>16739</v>
@@ -7064,13 +7061,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
+        <v>320</v>
+      </c>
+      <c r="C297" t="s">
         <v>321</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>322</v>
-      </c>
-      <c r="D297" t="s">
-        <v>323</v>
       </c>
       <c r="E297" t="s">
         <v>66</v>
@@ -7081,7 +7078,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C298" s="1">
         <v>23596</v>
@@ -7098,7 +7095,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C299" s="1">
         <v>18902</v>
@@ -7115,7 +7112,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C300" s="1">
         <v>9661</v>
@@ -7132,7 +7129,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C301" s="1">
         <v>25147</v>
@@ -7149,7 +7146,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C302" s="1">
         <v>14655</v>
@@ -7166,7 +7163,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C303" s="1">
         <v>14655</v>
@@ -7183,7 +7180,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C304" s="1">
         <v>17302</v>
@@ -7200,7 +7197,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C305" s="1">
         <v>19388</v>
@@ -7217,7 +7214,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C306" s="1">
         <v>14769</v>
@@ -7234,7 +7231,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C307" s="1">
         <v>19646</v>
@@ -7251,7 +7248,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C308" s="1">
         <v>10124</v>
@@ -7268,7 +7265,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C309" s="1">
         <v>13385</v>
@@ -7285,7 +7282,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C310" s="1">
         <v>9367</v>
@@ -7302,7 +7299,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C311" s="1">
         <v>20291</v>
@@ -7319,7 +7316,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C312" s="1">
         <v>28413</v>
@@ -7336,7 +7333,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C313" s="1">
         <v>22395</v>
@@ -7353,7 +7350,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C314" s="1">
         <v>22291</v>
@@ -7370,7 +7367,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C315" s="1">
         <v>31096</v>
@@ -7387,7 +7384,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C316" s="1">
         <v>12765</v>
@@ -7404,7 +7401,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C317" s="1">
         <v>26278</v>
@@ -7421,7 +7418,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C318" s="1">
         <v>16176</v>
@@ -7438,7 +7435,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C319" s="1">
         <v>20791</v>
@@ -7455,10 +7452,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
+        <v>345</v>
+      </c>
+      <c r="C320" t="s">
         <v>346</v>
-      </c>
-      <c r="C320" t="s">
-        <v>347</v>
       </c>
       <c r="D320">
         <v>20</v>
@@ -7472,7 +7469,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C321" s="1">
         <v>27152</v>
@@ -7489,7 +7486,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C322" s="1">
         <v>21240</v>
@@ -7506,7 +7503,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C323" s="1">
         <v>19819</v>
@@ -7523,7 +7520,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C324" s="1">
         <v>27561</v>
@@ -7540,7 +7537,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C325" s="1">
         <v>16467</v>
@@ -7557,7 +7554,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C326" s="1">
         <v>17613</v>
@@ -7574,7 +7571,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C327" s="1">
         <v>28078</v>
@@ -7591,7 +7588,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C328" s="1">
         <v>28669</v>
@@ -7608,7 +7605,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C329" s="1">
         <v>18057</v>
@@ -7625,7 +7622,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C330" s="1">
         <v>13559</v>
@@ -7642,7 +7639,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C331" s="1">
         <v>19420</v>
@@ -7659,7 +7656,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C332" s="1">
         <v>24402</v>
@@ -7676,7 +7673,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C333" s="1">
         <v>20086</v>
@@ -7693,7 +7690,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C334" s="1">
         <v>23622</v>
@@ -7710,7 +7707,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C335" s="1">
         <v>20104</v>
@@ -7727,7 +7724,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C336" s="1">
         <v>28620</v>
@@ -7744,10 +7741,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
+        <v>363</v>
+      </c>
+      <c r="C337" t="s">
         <v>364</v>
-      </c>
-      <c r="C337" t="s">
-        <v>365</v>
       </c>
       <c r="D337">
         <v>8</v>
@@ -7761,7 +7758,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C338" s="1">
         <v>10967</v>
@@ -7778,7 +7775,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C339" s="1">
         <v>21684</v>
@@ -7795,7 +7792,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C340" s="1">
         <v>17257</v>
@@ -7812,7 +7809,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C341" s="1">
         <v>22281</v>
@@ -7829,7 +7826,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C342" s="1">
         <v>17275</v>
@@ -7846,7 +7843,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C343" s="1">
         <v>22460</v>
@@ -7863,7 +7860,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C344" s="1">
         <v>20380</v>
@@ -7880,7 +7877,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C345" s="1">
         <v>12426</v>
@@ -7897,7 +7894,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C346" s="1">
         <v>19555</v>
@@ -7914,7 +7911,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C347" s="1">
         <v>19555</v>
@@ -7931,7 +7928,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C348" s="1">
         <v>18681</v>
@@ -7948,7 +7945,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C349" s="1">
         <v>22274</v>
@@ -7965,7 +7962,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C350" s="1">
         <v>7140</v>
@@ -7982,7 +7979,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C351" s="1">
         <v>10463</v>
@@ -7999,7 +7996,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C352" s="1">
         <v>14881</v>
@@ -8016,7 +8013,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C353" s="1">
         <v>2505</v>
@@ -8033,7 +8030,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C354" s="1">
         <v>32222</v>
@@ -8050,7 +8047,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C355" s="1">
         <v>37758</v>
@@ -8067,7 +8064,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C356" s="1">
         <v>25300</v>
@@ -8084,10 +8081,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
+        <v>384</v>
+      </c>
+      <c r="C357" t="s">
         <v>385</v>
-      </c>
-      <c r="C357" t="s">
-        <v>386</v>
       </c>
       <c r="D357">
         <v>5</v>
@@ -8101,7 +8098,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C358" s="1">
         <v>20722</v>
@@ -8118,7 +8115,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C359" s="1">
         <v>16467</v>
@@ -8135,10 +8132,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
+        <v>388</v>
+      </c>
+      <c r="C360" t="s">
         <v>389</v>
-      </c>
-      <c r="C360" t="s">
-        <v>390</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -8152,7 +8149,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C361" s="1">
         <v>20208</v>
@@ -8169,7 +8166,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C362" s="1">
         <v>25223</v>
@@ -8186,7 +8183,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C363" s="1">
         <v>11607</v>
@@ -8203,10 +8200,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
+        <v>393</v>
+      </c>
+      <c r="C364" t="s">
         <v>394</v>
-      </c>
-      <c r="C364" t="s">
-        <v>395</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -8220,10 +8217,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
+        <v>395</v>
+      </c>
+      <c r="C365" t="s">
         <v>396</v>
-      </c>
-      <c r="C365" t="s">
-        <v>397</v>
       </c>
       <c r="D365">
         <v>5</v>
@@ -8237,7 +8234,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C366" s="1">
         <v>26948</v>
@@ -8254,7 +8251,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C367" s="1">
         <v>26477</v>
@@ -8271,7 +8268,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C368" s="1">
         <v>24064</v>
@@ -8288,7 +8285,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C369" s="1">
         <v>24677</v>
@@ -8305,7 +8302,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C370" s="1">
         <v>18175</v>
@@ -8322,7 +8319,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C371" s="1">
         <v>10602</v>
@@ -8339,7 +8336,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C372" s="1">
         <v>16505</v>
@@ -8356,7 +8353,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C373" s="1">
         <v>18084</v>
@@ -8373,7 +8370,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C374" s="1">
         <v>21975</v>
@@ -8390,7 +8387,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C375" s="1">
         <v>16518</v>
@@ -8407,7 +8404,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C376" s="1">
         <v>16518</v>
@@ -8424,7 +8421,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C377" s="1">
         <v>15953</v>
@@ -8441,7 +8438,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C378" s="1">
         <v>16063</v>
@@ -8458,7 +8455,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C379" s="1">
         <v>21393</v>
@@ -8475,7 +8472,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C380" s="1">
         <v>19756</v>
@@ -8492,7 +8489,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C381" s="1">
         <v>21732</v>
@@ -8509,7 +8506,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C382" s="1">
         <v>14782</v>
@@ -8526,7 +8523,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C383" s="1">
         <v>21136</v>
@@ -8543,7 +8540,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C384" s="1">
         <v>25642</v>
@@ -8560,7 +8557,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C385" s="1">
         <v>22129</v>
@@ -8577,7 +8574,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C386" s="1">
         <v>20838</v>
@@ -8594,7 +8591,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C387" s="1">
         <v>16763</v>
@@ -8611,7 +8608,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C388" s="1">
         <v>15560</v>
@@ -8628,7 +8625,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C389" s="1">
         <v>20134</v>
@@ -8645,10 +8642,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
+        <v>421</v>
+      </c>
+      <c r="C390" t="s">
         <v>422</v>
-      </c>
-      <c r="C390" t="s">
-        <v>423</v>
       </c>
       <c r="D390">
         <v>9</v>
@@ -8662,7 +8659,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C391" s="1">
         <v>22591</v>
@@ -8679,7 +8676,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C392" s="1">
         <v>17947</v>
@@ -8696,7 +8693,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C393" s="1">
         <v>21570</v>
@@ -8713,7 +8710,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C394" s="1">
         <v>21517</v>
@@ -8730,7 +8727,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C395" s="1">
         <v>28068</v>
@@ -8747,7 +8744,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C396" s="1">
         <v>23267</v>
@@ -8764,7 +8761,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C397" s="1">
         <v>27369</v>
@@ -8781,7 +8778,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C398" s="1">
         <v>16067</v>
@@ -8798,7 +8795,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C399" s="1">
         <v>10111</v>
@@ -8815,7 +8812,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C400" s="1">
         <v>32444</v>
@@ -8832,7 +8829,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C401" s="1">
         <v>19632</v>
@@ -8849,7 +8846,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C402" s="1">
         <v>22842</v>
@@ -8866,7 +8863,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C403" s="1">
         <v>19870</v>
@@ -8883,7 +8880,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C404" s="1">
         <v>21757</v>
@@ -8900,7 +8897,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C405" s="1">
         <v>13033</v>
@@ -8917,7 +8914,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C406" s="1">
         <v>20298</v>
@@ -8934,7 +8931,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C407" s="1">
         <v>25596</v>
@@ -8951,7 +8948,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C408" s="1">
         <v>26971</v>
@@ -8968,7 +8965,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C409" s="1">
         <v>25476</v>
@@ -8985,7 +8982,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C410" s="1">
         <v>19517</v>
@@ -9002,7 +8999,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C411" s="1">
         <v>21204</v>
@@ -9019,7 +9016,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C412" s="1">
         <v>22727</v>
@@ -9036,7 +9033,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C413" s="1">
         <v>15530</v>
@@ -9053,10 +9050,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
+        <v>446</v>
+      </c>
+      <c r="C414" t="s">
         <v>447</v>
-      </c>
-      <c r="C414" t="s">
-        <v>448</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -9070,7 +9067,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C415" s="1">
         <v>24684</v>
@@ -9087,7 +9084,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C416" s="1">
         <v>23036</v>
@@ -9104,7 +9101,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C417" s="1">
         <v>23556</v>
@@ -9121,7 +9118,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C418" s="1">
         <v>22184</v>
@@ -9138,7 +9135,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C419" s="1">
         <v>19838</v>
@@ -9155,7 +9152,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C420" s="1">
         <v>24804</v>
@@ -9172,7 +9169,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C421" s="1">
         <v>16594</v>
@@ -9189,7 +9186,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C422" s="1">
         <v>24084</v>
@@ -9206,7 +9203,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C423" s="1">
         <v>22822</v>
@@ -9223,7 +9220,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C424" s="1">
         <v>19811</v>
@@ -9240,7 +9237,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C425" s="1">
         <v>19892</v>
@@ -9257,7 +9254,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C426" s="1">
         <v>21848</v>
@@ -9274,7 +9271,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C427" s="1">
         <v>21612</v>
@@ -9291,7 +9288,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C428" s="1">
         <v>19861</v>
@@ -9308,7 +9305,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C429" s="1">
         <v>17130</v>
@@ -9325,7 +9322,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C430" s="1">
         <v>13903</v>
@@ -9342,7 +9339,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C431" s="1">
         <v>15180</v>
@@ -9359,7 +9356,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C432" s="1">
         <v>18076</v>
@@ -9376,7 +9373,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C433" s="1">
         <v>21669</v>
@@ -9393,7 +9390,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C434" s="1">
         <v>11367</v>
@@ -9410,7 +9407,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C435" s="1">
         <v>16146</v>
@@ -9427,10 +9424,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
+        <v>469</v>
+      </c>
+      <c r="C436" t="s">
         <v>470</v>
-      </c>
-      <c r="C436" t="s">
-        <v>471</v>
       </c>
       <c r="D436">
         <v>5</v>
@@ -9444,10 +9441,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
+        <v>471</v>
+      </c>
+      <c r="C437" t="s">
         <v>472</v>
-      </c>
-      <c r="C437" t="s">
-        <v>473</v>
       </c>
       <c r="D437">
         <v>6</v>
@@ -9461,7 +9458,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C438" s="1">
         <v>21781</v>
@@ -9478,7 +9475,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C439" s="1">
         <v>12064</v>
@@ -9495,7 +9492,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C440" s="1">
         <v>22722</v>
@@ -9512,7 +9509,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C441" s="1">
         <v>25445</v>
@@ -9529,7 +9526,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C442" s="1">
         <v>18785</v>
@@ -9546,7 +9543,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C443" s="1">
         <v>19693</v>
@@ -9563,7 +9560,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C444" s="1">
         <v>18883</v>
@@ -9580,7 +9577,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C445" s="1">
         <v>22506</v>
@@ -9597,7 +9594,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C446" s="1">
         <v>25281</v>
@@ -9614,10 +9611,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
+        <v>482</v>
+      </c>
+      <c r="C447" t="s">
         <v>483</v>
-      </c>
-      <c r="C447" t="s">
-        <v>484</v>
       </c>
       <c r="D447">
         <v>3</v>
@@ -9631,7 +9628,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C448" s="1">
         <v>18708</v>
@@ -9648,7 +9645,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C449" s="1">
         <v>18495</v>
@@ -9665,7 +9662,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C450" s="1">
         <v>16073</v>
@@ -9682,7 +9679,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C451" s="1">
         <v>17436</v>
@@ -9699,7 +9696,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C452" s="1">
         <v>15196</v>
@@ -9716,7 +9713,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C453" s="1">
         <v>22477</v>
@@ -9733,7 +9730,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C454" s="1">
         <v>20018</v>
@@ -9750,7 +9747,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C455" s="1">
         <v>8849</v>
@@ -9767,7 +9764,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C456" s="1">
         <v>27191</v>
@@ -9784,7 +9781,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C457" s="1">
         <v>11104</v>
@@ -9801,7 +9798,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C458" s="1">
         <v>13357</v>
@@ -9818,7 +9815,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C459" s="1">
         <v>14002</v>
@@ -9835,7 +9832,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C460" s="1">
         <v>15595</v>
@@ -9852,7 +9849,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C461" s="1">
         <v>17231</v>
@@ -9869,7 +9866,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C462" s="1">
         <v>668</v>
@@ -9886,7 +9883,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C463" s="1">
         <v>22386</v>
@@ -9903,7 +9900,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C464" s="1">
         <v>18666</v>
@@ -9920,7 +9917,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C465" s="1">
         <v>24416</v>
@@ -9937,7 +9934,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C466" s="1">
         <v>23532</v>
@@ -9954,7 +9951,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C467" s="1">
         <v>26013</v>
@@ -9971,7 +9968,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C468" s="1">
         <v>20230</v>
@@ -9988,7 +9985,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C469" s="1">
         <v>29293</v>
@@ -10005,7 +10002,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C470" s="1">
         <v>21012</v>
@@ -10022,7 +10019,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C471" s="1">
         <v>24050</v>
@@ -10039,7 +10036,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C472" s="1">
         <v>24757</v>
@@ -10056,7 +10053,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C473" s="1">
         <v>21615</v>
@@ -10073,7 +10070,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C474" s="1">
         <v>25470</v>
@@ -10090,7 +10087,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C475" s="1">
         <v>19670</v>
@@ -10107,7 +10104,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C476" s="1">
         <v>28300</v>
@@ -10124,7 +10121,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C477" s="1">
         <v>35175</v>
@@ -10141,7 +10138,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C478" s="1">
         <v>17196</v>
@@ -10158,7 +10155,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C479" s="1">
         <v>21274</v>
@@ -10175,7 +10172,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C480" s="1">
         <v>22125</v>
@@ -10192,10 +10189,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
+        <v>517</v>
+      </c>
+      <c r="C481" t="s">
         <v>518</v>
-      </c>
-      <c r="C481" t="s">
-        <v>519</v>
       </c>
       <c r="D481">
         <v>3</v>
@@ -10209,7 +10206,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C482" s="1">
         <v>19068</v>
@@ -10226,7 +10223,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C483" s="1">
         <v>16509</v>
@@ -10243,7 +10240,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C484" s="1">
         <v>22844</v>
@@ -10260,7 +10257,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C485" s="1">
         <v>20070</v>
@@ -10277,7 +10274,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C486" s="1">
         <v>28909</v>
@@ -10294,7 +10291,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C487" s="1">
         <v>19544</v>
@@ -10311,7 +10308,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C488" s="1">
         <v>23348</v>
@@ -10328,7 +10325,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C489" s="1">
         <v>21332</v>
@@ -10345,10 +10342,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
+        <v>527</v>
+      </c>
+      <c r="C490" t="s">
         <v>528</v>
-      </c>
-      <c r="C490" t="s">
-        <v>529</v>
       </c>
       <c r="D490">
         <v>4</v>
@@ -10362,7 +10359,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C491" s="1">
         <v>21187</v>
@@ -10379,7 +10376,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C492" s="1">
         <v>22945</v>
@@ -10396,7 +10393,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C493" s="1">
         <v>21243</v>
@@ -10413,7 +10410,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C494" s="1">
         <v>23229</v>
@@ -10430,7 +10427,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C495" s="1">
         <v>20991</v>
@@ -10447,7 +10444,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C496" s="1">
         <v>18623</v>
@@ -10464,7 +10461,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C497" s="1">
         <v>14695</v>
@@ -10481,7 +10478,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C498" s="1">
         <v>20514</v>
@@ -10498,7 +10495,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C499" s="1">
         <v>19141</v>
@@ -10515,7 +10512,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C500" s="1">
         <v>14856</v>
@@ -10528,6 +10525,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F500" xr:uid="{41171E95-B862-4321-91FC-FCB8337BAFD5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/killers_excel.xlsx
+++ b/killers_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b954984cd282067a/Desktop/Class_folder/Class Project/Horrorscopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1493A3A1-D195-4CCE-BE0F-B93F78F6773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71AFE9D-F432-4CF2-82F9-BAE512B3778B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1493A3A1-D195-4CCE-BE0F-B93F78F6773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E7106C-A1AE-4DA7-8522-EB051A859C0E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2569468D-C13A-4330-8DF5-F3EF403746FB}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
     <t>Last, First</t>
   </si>
   <si>
-    <t>DOB</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2019,13 @@
   <dimension ref="A1:E500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2371,7 +2374,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D21">
@@ -2609,7 +2612,7 @@
       <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D35">
@@ -3323,7 +3326,7 @@
       <c r="B77" t="s">
         <v>91</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D77">
@@ -3629,7 +3632,7 @@
       <c r="B95" t="s">
         <v>110</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D95">
@@ -3646,7 +3649,7 @@
       <c r="B96" t="s">
         <v>112</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D96">
@@ -3935,7 +3938,7 @@
       <c r="B113" t="s">
         <v>130</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D113">
@@ -4751,7 +4754,7 @@
       <c r="B161" t="s">
         <v>179</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D161">
@@ -5720,7 +5723,7 @@
       <c r="B218" t="s">
         <v>237</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D218">
@@ -5788,7 +5791,7 @@
       <c r="B222" t="s">
         <v>242</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D222">
@@ -5890,7 +5893,7 @@
       <c r="B228" t="s">
         <v>249</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D228">
@@ -6009,7 +6012,7 @@
       <c r="B235" t="s">
         <v>257</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D235">
@@ -7063,7 +7066,7 @@
       <c r="B297" t="s">
         <v>320</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D297" t="s">
@@ -7454,7 +7457,7 @@
       <c r="B320" t="s">
         <v>345</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="1" t="s">
         <v>346</v>
       </c>
       <c r="D320">
@@ -7743,7 +7746,7 @@
       <c r="B337" t="s">
         <v>363</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D337">
@@ -8083,7 +8086,7 @@
       <c r="B357" t="s">
         <v>384</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="1" t="s">
         <v>385</v>
       </c>
       <c r="D357">
@@ -8134,7 +8137,7 @@
       <c r="B360" t="s">
         <v>388</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="1" t="s">
         <v>389</v>
       </c>
       <c r="D360">
@@ -8202,7 +8205,7 @@
       <c r="B364" t="s">
         <v>393</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D364">
@@ -8219,7 +8222,7 @@
       <c r="B365" t="s">
         <v>395</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D365">
@@ -8644,7 +8647,7 @@
       <c r="B390" t="s">
         <v>421</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="1" t="s">
         <v>422</v>
       </c>
       <c r="D390">
@@ -9052,7 +9055,7 @@
       <c r="B414" t="s">
         <v>446</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="1" t="s">
         <v>447</v>
       </c>
       <c r="D414">
@@ -9426,7 +9429,7 @@
       <c r="B436" t="s">
         <v>469</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="1" t="s">
         <v>470</v>
       </c>
       <c r="D436">
@@ -9443,7 +9446,7 @@
       <c r="B437" t="s">
         <v>471</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="1" t="s">
         <v>472</v>
       </c>
       <c r="D437">
@@ -9613,7 +9616,7 @@
       <c r="B447" t="s">
         <v>482</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D447">
@@ -10191,7 +10194,7 @@
       <c r="B481" t="s">
         <v>517</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D481">
@@ -10344,7 +10347,7 @@
       <c r="B490" t="s">
         <v>527</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D490">
